--- a/biology/Médecine/Arthur_Mermod/Arthur_Mermod.xlsx
+++ b/biology/Médecine/Arthur_Mermod/Arthur_Mermod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Mermod, né le 15 août 1852 à Sainte-Croix et mort le 15 janvier 1915, est un enseignant, médecin et oto-rhino-laryngologue vaudois.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arthur Mermod fait, dans son village d'origine, ses études primaires et secondaires, qu'il termine à Lausanne. Après un apprentissage avorté de pharmacien à Vevey, il apprend l'anatomie et la physiologie à Erlangen. Arthur Mermod se rend ensuite à Iéna, puis à Strasbourg, où il obtient le titre de docteur en médecine en 1877 grâce à une thèse consacrée à l'influence de la dépression barométrique sur le corps humain. 
 Arthur Mermod s'inscrit à la Faculté de médecine de Berne, puis de Genève, où il obtient son diplôme professionnel en 1878, et où il travaille trois ans comme interne dans plusieurs services de l'Hôpital cantonal. Arthur Mermod se fixe finalement à Yverdon-les-Bains, où il est attaché à l'établissement thermal. En 1883, il consacre à celui-ci une étude historique et scientifique dans une brochure intitulée "Les Bains d'Yverdon". 
@@ -545,7 +559,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Arthur Mermod », sur la base de données des personnalités vaudoises sur la plateforme « Patrinum » de la Bibliothèque cantonale et universitaire de Lausanne.
 G. Terrier Un pionnier de l'oto-rhino-laryngologie : le professeur Arthur Mermod, in: Revue médicale de la Suisse romande, 1988, no 12, p. 1075-1083, (2B 2558/1988/108/12, illustration, p. 1077)
